--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koros\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B26563F6-60AF-44B6-80D9-9D842A249DD9}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8520" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//是否需要目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +120,16 @@
   <si>
     <t>普通</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue1</t>
+  </si>
+  <si>
+    <t>//效果1数值</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -467,7 +473,7 @@
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,13 +499,16 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,16 +531,19 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -562,28 +574,31 @@
       <c r="J3" s="1">
         <v>-1</v>
       </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -593,6 +608,9 @@
       </c>
       <c r="J4" s="1">
         <v>1001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B26563F6-60AF-44B6-80D9-9D842A249DD9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448E481F-DAD1-442C-A705-F2594CA892A9}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,29 +107,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>造成6点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue1</t>
+  </si>
+  <si>
+    <t>//效果1数值</t>
+  </si>
+  <si>
     <t>Image/Card/CardImg/斩击</t>
-  </si>
-  <si>
-    <t>造成6点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectValue1</t>
-  </si>
-  <si>
-    <t>//效果1数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -505,7 +506,7 @@
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -531,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -540,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -586,19 +587,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448E481F-DAD1-442C-A705-F2594CA892A9}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A05CAD-EC61-4ED1-A0A3-619E424AE722}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//卡牌描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectIID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//效果1ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成6点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +114,10 @@
   </si>
   <si>
     <t>Image/Card/CardImg/斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectID1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,23 +446,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,19 +485,16 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -529,22 +514,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -575,42 +557,36 @@
       <c r="J3" s="1">
         <v>-1</v>
       </c>
-      <c r="K3" s="1">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="J4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K4" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A05CAD-EC61-4ED1-A0A3-619E424AE722}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4924110-353B-4121-9913-C78C9EE27666}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,25 @@
   <si>
     <t>EffectID1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/图标组1_8</t>
   </si>
 </sst>
 </file>
@@ -446,20 +465,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -490,7 +512,7 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -522,7 +544,7 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -577,8 +599,8 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -587,6 +609,38 @@
         <v>1001</v>
       </c>
       <c r="J4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay the Touhou RE/Assets/Resources/Cfg/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{2CECC852-5E7A-4D96-A858-A40C025AD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4924110-353B-4121-9913-C78C9EE27666}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,147 +17,457 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ImgPath</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>EffectNum</t>
+  </si>
+  <si>
+    <t>EffectID1</t>
+  </si>
+  <si>
+    <t>EffectValue1</t>
   </si>
   <si>
     <t>//卡牌ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//卡牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImgPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//卡图路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//卡牌费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//卡牌类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//目标类型</t>
   </si>
   <si>
     <t>//效果数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//效果1ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//效果1数值</t>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/斩击</t>
   </si>
   <si>
     <t>体术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectValue1</t>
-  </si>
-  <si>
-    <t>//效果1数值</t>
-  </si>
-  <si>
-    <t>Image/Card/CardImg/斩击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体敌人</t>
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/图标组1_8</t>
   </si>
   <si>
     <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Card/CardImg/图标组1_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,9 +475,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -186,17 +727,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -280,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -454,101 +1039,96 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -580,27 +1160,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -612,27 +1192,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -645,8 +1225,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,12 @@
     <t>EffectValue1</t>
   </si>
   <si>
+    <t>EffectID2</t>
+  </si>
+  <si>
+    <t>EffectValue2</t>
+  </si>
+  <si>
     <t>//卡牌ID</t>
   </si>
   <si>
@@ -101,6 +107,12 @@
   </si>
   <si>
     <t>玩家</t>
+  </si>
+  <si>
+    <t>残月斩</t>
+  </si>
+  <si>
+    <t>神妙斩</t>
   </si>
 </sst>
 </file>
@@ -110,10 +122,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -130,7 +149,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,13 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -159,8 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,76 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +240,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +287,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,163 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +481,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -483,15 +503,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,15 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,151 +569,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,13 +1050,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -1061,10 +1066,12 @@
     <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="11.1083333333333" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,40 +1102,52 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -1159,28 +1178,34 @@
       <c r="J3" s="1">
         <v>-1</v>
       </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1191,28 +1216,34 @@
       <c r="J4" s="1">
         <v>6</v>
       </c>
+      <c r="K4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1221,7 +1252,89 @@
         <v>1002</v>
       </c>
       <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J7" s="1">
         <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>//效果1数值</t>
+  </si>
+  <si>
+    <t>//效果2ID</t>
+  </si>
+  <si>
+    <t>//效果2数值</t>
   </si>
   <si>
     <t>斩击</t>
@@ -121,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,6 +154,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -156,30 +208,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,86 +268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,49 +293,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,133 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,25 +504,32 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -548,33 +561,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,145 +590,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1059,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1141,10 +1147,10 @@
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1190,22 +1196,22 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1228,22 +1234,22 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1266,22 +1272,22 @@
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -1304,22 +1310,22 @@
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41cce7339587cfd7/Unity Projects/Slay-the-Touhou-RE/Assets/Resources/Cfg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koros\OneDrive\Unity Projects\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E4A227A5F108F59B198F40345BF7D744AF0FEBD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C84F42-1021-4C0D-B28D-36F92BAE0CEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B80E1E-4200-4F31-872A-D82DA1FE1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,38 @@
   </si>
   <si>
     <t>Image/Card/CardImg/神妙斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/燕返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//效果3ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//效果3数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,12 +221,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,104 +510,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.08203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="11.0703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -600,8 +658,14 @@
       <c r="L3" s="1">
         <v>-1</v>
       </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -638,8 +702,14 @@
       <c r="L4" s="1">
         <v>6</v>
       </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -676,8 +746,14 @@
       <c r="L5" s="1">
         <v>5</v>
       </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -714,8 +790,14 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -751,6 +833,56 @@
       </c>
       <c r="L7" s="1">
         <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koros\OneDrive\Unity Projects\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B80E1E-4200-4F31-872A-D82DA1FE1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +52,12 @@
     <t>EffectValue2</t>
   </si>
   <si>
+    <t>EffectID3</t>
+  </si>
+  <si>
+    <t>EffectValue3</t>
+  </si>
+  <si>
     <t>//卡牌ID</t>
   </si>
   <si>
@@ -94,6 +94,12 @@
     <t>//效果2数值</t>
   </si>
   <si>
+    <t>//效果3ID</t>
+  </si>
+  <si>
+    <t>//效果3数值</t>
+  </si>
+  <si>
     <t>斩击</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>格挡</t>
   </si>
   <si>
+    <t>Image/Card/CardImg/格挡</t>
+  </si>
+  <si>
     <t>防御</t>
   </si>
   <si>
@@ -121,58 +130,35 @@
     <t>残月斩</t>
   </si>
   <si>
+    <t>Image/Card/CardImg/残月斩</t>
+  </si>
+  <si>
     <t>神妙斩</t>
   </si>
   <si>
-    <t>Image/Card/CardImg/格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Card/CardImg/残月斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/Card/CardImg/神妙斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>燕返</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/Card/CardImg/燕返</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>稀有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectID3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//效果3ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectValue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//效果3数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,21 +167,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +327,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -217,36 +526,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,124 +1099,124 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3583333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.14166666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.0666666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.0703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.0666666666667" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.0666666666667" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -665,27 +1260,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -709,27 +1304,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -753,27 +1348,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -797,27 +1392,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -841,27 +1436,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -886,8 +1481,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8BD34-1EF7-483D-AEAA-D89670B07206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="4114" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -146,19 +152,18 @@
   </si>
   <si>
     <t>稀有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,24 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,125 +188,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,198 +202,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,253 +215,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,62 +233,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1099,36 +505,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.35546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.14166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
     <col min="7" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.0666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.0703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.0666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.0703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="11.0666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.0703125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -1260,7 +666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -1304,7 +710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -1348,7 +754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -1364,8 +770,8 @@
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -1392,7 +798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -1408,8 +814,8 @@
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>36</v>
@@ -1436,7 +842,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -1452,8 +858,8 @@
       <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
@@ -1481,8 +887,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8BD34-1EF7-483D-AEAA-D89670B07206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C01CAD-A0D5-4249-A0B0-3482B4F438C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4114" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -862,7 +862,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C01CAD-A0D5-4249-A0B0-3482B4F438C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336E209-A7A1-4504-8DE1-D77F5FAD73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -156,6 +156,22 @@
   </si>
   <si>
     <t>史诗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二刀的心得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/二刀的心得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -175,12 +191,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -886,6 +904,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336E209-A7A1-4504-8DE1-D77F5FAD73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F0DEE-822A-4872-99B5-02184DDADE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1131" yWindow="1131" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -172,6 +172,38 @@
   </si>
   <si>
     <t>玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袈裟斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/袈裟斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/居合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体敌人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -948,6 +980,94 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1009</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1010</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1011</v>
+      </c>
+      <c r="J11" s="1">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1004</v>
+      </c>
+      <c r="L11" s="1">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F0DEE-822A-4872-99B5-02184DDADE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A1C143-043C-43CB-8F91-05A37F4DDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3771" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>全体敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/起势</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1068,6 +1076,50 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1013</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1012</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Cfg/CardDataCfg.xlsx
+++ b/Assets/Resources/Cfg/CardDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A1C143-043C-43CB-8F91-05A37F4DDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9678F74-D027-464B-8469-EE0FBCFB857D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3771" yWindow="2451" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Image/Card/CardImg/起势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Card/CardImg/无间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1120,6 +1132,50 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
